--- a/Results/Mean t-tests.xlsx
+++ b/Results/Mean t-tests.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,6 +610,111 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Cluster(K=2) 1 vs Cluster(K=2) 0</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>40.61406238255547</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Cluster(K=4) 0 vs Cluster(K=4) 1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>67.40600800796201</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Cluster(K=4) 0 vs Cluster(K=4) 2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>58.87962185392612</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Cluster(K=4) 0 vs Cluster(K=4) 3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>31.50603624229689</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Cluster(K=4) 1 vs Cluster(K=4) 2</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-7.541499018440617</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Cluster(K=4) 1 vs Cluster(K=4) 3</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-39.57053701129885</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Cluster(K=4) 2 vs Cluster(K=4) 3</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-30.25424917213488</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Results/Mean t-tests.xlsx
+++ b/Results/Mean t-tests.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.425150305315581</v>
+        <v>2.425150305315582</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>

--- a/Results/Mean t-tests.xlsx
+++ b/Results/Mean t-tests.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.425150305315582</v>
+        <v>2.425150305315581</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>40.61406238255547</v>
+        <v>-9.398482857306119</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>67.40600800796201</v>
+        <v>11.32375915509232</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>58.87962185392612</v>
+        <v>11.87248823550033</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>31.50603624229689</v>
+        <v>10.25019519891505</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -677,11 +677,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-7.541499018440617</v>
+        <v>0.8971733566689022</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -692,11 +692,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-39.57053701129885</v>
+        <v>-0.2858257637782941</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -707,11 +707,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-30.25424917213488</v>
+        <v>-1.120868379006642</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>

--- a/Results/Mean t-tests.xlsx
+++ b/Results/Mean t-tests.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.425150305315582</v>
+        <v>2.425150305315581</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
